--- a/medicine/Enfance/Elleston_Trevor/Elleston_Trevor.xlsx
+++ b/medicine/Enfance/Elleston_Trevor/Elleston_Trevor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elleston Trevor, pseudonyme de Trevor Dudley-Smith né le 17 février 1920 à Bromley, dans le Grand Londres et mort le 21 juillet 1995 à Cave Creek, en Arizona[1], est un écrivain britannique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elleston Trevor, pseudonyme de Trevor Dudley-Smith né le 17 février 1920 à Bromley, dans le Grand Londres et mort le 21 juillet 1995 à Cave Creek, en Arizona, est un écrivain britannique.
 Il est surtout connu en français pour ses romans d'espionnage signés du pseudonyme Adam Hall. Il a également écrit sous les pseudonymes de Mansell Black, Trevor Burgess, Roger Fitzalan, Howard North, Simon Rattray, Warwick Scott, Caesar Smith et Lesley Stone. Son œuvre compte des romans, des ouvrages de littérature d'enfance et de jeunesse et des pièces de théâtre.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études dans le Kent, notamment à l'école Sevenoaks de 1932 à 1938. Pendant la Seconde Guerre mondiale, il s'engage dans la Royal Air Force.
 Il amorce sa carrière d'écrivain en 1943 par la publication d'ouvrages pour la jeunesse et ses premiers romans policiers. Une fois démobilisé, il se consacre entièrement à l'écriture. Pour écouler son abondante production, il choisit de signer ses parutions sous de nombreux pseudonymes, dont les deux plus importants sont Adam Hall pour ses romans d'espionnage et la série de l'agent secret britannique Quiller, et Elleston Trevor pour ses récits de guerre ou d'aventures, ainsi que des romans pour la jeunesse et des pièces de théâtre.
@@ -547,9 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Quiller signée Adam Hall
-The Berlin Memorandum ou The Quiller Memorandum (1965) Publié en français sous le titre Berlin Memorandum, traduit par Philippe Labro, Paris, Presses de la Cité, 1965, 318 p. (BNF 33037255) ; réédition sous le titre Le Secret du rapport Quiller, Presses Pocket no 545, 251 p. (BNF 33037257)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Quiller signée Adam Hall</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>The Berlin Memorandum ou The Quiller Memorandum (1965) Publié en français sous le titre Berlin Memorandum, traduit par Philippe Labro, Paris, Presses de la Cité, 1965, 318 p. (BNF 33037255) ; réédition sous le titre Le Secret du rapport Quiller, Presses Pocket no 545, 251 p. (BNF 33037257)
 The 9th Directive (1966) Publié en français sous le titre La 9e Directive : Quiller à Bangkok, traduit par Frank Jansen, Paris, Presses de la Cité, 1967, 285 p. (BNF 33037256)
 The Striker Portfolio (1968) Publié en français sous le titre Le Dossier Striker, traduit par Constance Gallet, Paris, Presses de la Cité, coll. « Punch » no 124, 1977, 250 p. (BNF 36142660)
 The Warsaw Document (1971) Publié en français sous le titre Le Document de Varsovie, traduit par François Segrestaa, Paris, Presses de la Cité, coll. « Punch » no 74, 1977, 245 p. (BNF 34647735)
@@ -567,43 +589,423 @@
 Quiller Solitaire (1992)
 Quiller Meridian (1993)
 Quiller Salamander (1994)
-Quiller Balalaika (1996)
-Roman court de la série Quiller
-Last Rites (1986)
-Autres romans signés Adam Hall
-The Volcanoes of San Domingo (1963), également signé Elliston Trevor Publié en français sous le titre Les Volcans de San Domingo, Paris, trad. de Claude Saunier, Éditions Fleuve Noir, 1967, 379 p. (BNF 33196216)
+Quiller Balalaika (1996)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Roman court de la série Quiller</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Last Rites (1986)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans signés Adam Hall</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Volcanoes of San Domingo (1963), également signé Elliston Trevor Publié en français sous le titre Les Volcans de San Domingo, Paris, trad. de Claude Saunier, Éditions Fleuve Noir, 1967, 379 p. (BNF 33196216)
 A Blaze of Arms (1967), également paru sous le pseudonyme Roger Fitzalan
-The Sibling (1979), également paru sous la signature Elleston Trevor
-Romans signés Mansell Black
-Dead on Course (1951)
+The Sibling (1979), également paru sous la signature Elleston Trevor</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Romans signés Mansell Black</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dead on Course (1951)
 Sinister Cargo (1951)
 Shadow of Evil (1953)
-Steps in the Dark (1954)
-Romans signés Trevor Dudley-Smith
-Over the Wall (1943)
+Steps in the Dark (1954)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Romans signés Trevor Dudley-Smith</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Over the Wall (1943)
 Double Who Double Crossed (1944)
 Escape to Fear (1948)
-Now Try the Morgue (1948)
-Roman signé Howard North
-Expressway (1973), également signé Elleston Trevor Publié en français sous le titre Expressway, traduit par Frank Straschitz, Paris, Éditions Robert Laffont, coll. « Best sellers », 1974, 354 p. (BNF 35432757)
-Romans signés Simon Rattray
-Knight Sinister (1951)
+Now Try the Morgue (1948)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Roman signé Howard North</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Expressway (1973), également signé Elleston Trevor Publié en français sous le titre Expressway, traduit par Frank Straschitz, Paris, Éditions Robert Laffont, coll. « Best sellers », 1974, 354 p. (BNF 35432757)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Romans signés Simon Rattray</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Knight Sinister (1951)
 Queen in Danger (1952)
 Bishop in Check (1953)
 Dead Silence (1954, retitré Pawn in Jeopardy sous le pseudonyme Adam Hall
 Dead Circuit (1955), retitré Rook's Gambit sous le pseudonyme Adam Hall
-Dead Sequence (1957)
-Romans signés Warwick Scott
-Image in the Dust ou Cockpit (É.-U.) (1951), également signé Elleston Trevor Publié en français sous le titre La Course folle de l’amour, Paris, traduit par Laure Casseau, Éditions Fleuve Noir, 1969, 381 p. (BNF 33196209)
+Dead Sequence (1957)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Romans signés Warwick Scott</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Image in the Dust ou Cockpit (É.-U.) (1951), également signé Elleston Trevor Publié en français sous le titre La Course folle de l’amour, Paris, traduit par Laure Casseau, Éditions Fleuve Noir, 1969, 381 p. (BNF 33196209)
 The Domesday Story ou Doomsday (É.-U.) (1952)
-Naked Canvas (1954)
-Roman signé Caesar Smith
-Heat Wave (1957)
-Romans signés Lesley Stone
-Siren Song (1985)
-Riviera Story (1987)
-Romans signés Elleston Trevor
-The Immortal Error (1946)
+Naked Canvas (1954)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Roman signé Caesar Smith</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Heat Wave (1957)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Romans signés Lesley Stone</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Siren Song (1985)
+Riviera Story (1987)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Romans signés Elleston Trevor</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>The Immortal Error (1946)
 Chorus of Echoes (1950) Publié en français sous le titre La vie est au bout du tunnel, Paris, traduit par Lily Jumel, Éditions Fleuve Noir, 1969, 380 p. (BNF 33196215)
 Redfern's Miracle (1951)
 Tiger Street (1951) Publié en français sous le titre Tiger street, traduit par Pierre-François Caillé, Paris, Éditions Robert Laffont, coll. « Pavillons », 1952, 255 p. (BNF 31494413)
@@ -636,10 +1038,47 @@
 The Penthouse (1983)
 Deathwatch (1984)
 The Sister (1994)
-Flycatcher (1994)
-Ouvrages pour la jeunesse
-Signés Elleston Trevor
-Wumpus (1945)
+Flycatcher (1994)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ouvrages pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Signés Elleston Trevor</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Wumpus (1945)
 Deep Wood (1945)
 Heather Hill (1946)
 More About Wumpus (1947)
@@ -659,16 +1098,126 @@
 The Crystal City (1959)
 Green Glade (1959)
 Squirrel's Island (1963)
-The Chipmunks of Willow Wood (1975)
-Signés Trevor Burgess
-A Spy at Monk's Court (1949)
+The Chipmunks of Willow Wood (1975)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ouvrages pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Signés Trevor Burgess</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>A Spy at Monk's Court (1949)
 Mystery of the Missing Book (1950)
-The Racing Wraith (1953)
-Signés Trevor Dudley-Smith
-Into the Happy Glade (1943)
-By a Silver Stream (1944)
-Pièces de théâtre signées Elleston Trevor
-The Last of the Daylight (1959)
+The Racing Wraith (1953)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Ouvrages pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Signés Trevor Dudley-Smith</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Into the Happy Glade (1943)
+By a Silver Stream (1944)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Pièces de théâtre signées Elleston Trevor</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>The Last of the Daylight (1959)
 Murder by All Means (1960)
 The Search (1963)
 A Pinch of Purple (1971)
@@ -677,78 +1226,156 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Elleston_Trevor</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Elleston_Trevor</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Au cinéma
-1952 : Wings of Danger, film britannique de Terence Fisher, d'après le roman Dead on Course (1951), avec Zachary Scott et Robert Beatty
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1952 : Wings of Danger, film britannique de Terence Fisher, d'après le roman Dead on Course (1951), avec Zachary Scott et Robert Beatty
 1953 : Mantrap, film britannique de Terence Fisher, d'après le roman Queen in Danger (1952), avec Paul Henreid et Lois Maxwell
 1958 : Dunkerque (Dunkirk), film britannique de Leslie Norman, d'après le roman The Big Pick-Up (1955), avec John Mills et Richard Attenborough
 1963 : 80,000 Suspects, film britannique réalisé par Val Guest, d'après le roman The Pillars of Midnight (1957), avec Claire Bloom et Richard Johnson
 1965 : Le Vol du Phénix (The Flight of the Phoenix), film américain réalisé par Robert Aldrich, d'après le roman éponyme publié en 1964, avec James Stewart, Richard Attenborough et Peter Finch
-1966 : Le Secret du rapport Quiller (The Quiller Memorandum), film américano-britannique réalisé par Michael Anderson, d'après le roman éponyme publié en 1965, avec George Segal, Alec Guinness et Max von Sydow
-À la télévision
-1958 : The Pillars of Midnight, épisode 1, saison 3, de la série britannique Armchair Theatre réalisé par George More O'Ferrall, avec George Baker
+1966 : Le Secret du rapport Quiller (The Quiller Memorandum), film américano-britannique réalisé par Michael Anderson, d'après le roman éponyme publié en 1965, avec George Segal, Alec Guinness et Max von Sydow</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1958 : The Pillars of Midnight, épisode 1, saison 3, de la série britannique Armchair Theatre réalisé par George More O'Ferrall, avec George Baker
 1975 : Quiller (en), série télévisée britannique en 13 épisodes de 50 minutes, avec Michael Jayston dans le rôle-titre
 1976 : Carambolages (Smash-Up Interstate 5), téléfilm britannique de John Llewellyn Moxey, d'après le roman Expressway (1973), avec Robert Conrad
 1989 : Chute libre (The Penthouse), téléfilm canado-américain de David Greene, d'après le romanéponyme publié en 1983, avec Robin Givens</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Elleston_Trevor</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Elleston_Trevor</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Prix
-Prix Edgar-Allan-Poe 1966 du meilleur roman pour The Berlin Memorandum][2]
-Grand prix de littérature policière 1966 pour Berlin memorandum[3]
-Nomination
-Gold Dagger Award 1971 pour The Warsaw Document[4]</t>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Prix Edgar-Allan-Poe 1966 du meilleur roman pour The Berlin Memorandum]
+Grand prix de littérature policière 1966 pour Berlin memorandum</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elleston_Trevor</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Nomination</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Gold Dagger Award 1971 pour The Warsaw Document</t>
         </is>
       </c>
     </row>
